--- a/Output/AutoCorr.xlsx
+++ b/Output/AutoCorr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="39">
   <si>
     <t>Row</t>
   </si>
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -170,11 +170,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -188,6 +196,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,16 +255,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -349,7 +365,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E2">
@@ -459,7 +475,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E3">
@@ -569,7 +585,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E4">
@@ -679,7 +695,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E5">
@@ -693,7 +709,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E6">
@@ -707,7 +723,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E7">
@@ -721,7 +737,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E8">
@@ -735,7 +751,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E9">
@@ -749,7 +765,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E10">
@@ -763,7 +779,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E11">
@@ -777,7 +793,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E12">
@@ -791,7 +807,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E13">
@@ -805,7 +821,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E14">
@@ -819,7 +835,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E15">
@@ -833,7 +849,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E16">
@@ -847,7 +863,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E17">
@@ -861,7 +877,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E18">
@@ -875,7 +891,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E19">
@@ -889,7 +905,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -903,7 +919,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E21">
@@ -917,7 +933,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E22">
@@ -931,7 +947,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E23">
@@ -945,7 +961,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E24">
@@ -959,7 +975,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E25">
@@ -973,7 +989,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E26">
@@ -987,7 +1003,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E27">
@@ -1001,7 +1017,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E28">
@@ -1015,7 +1031,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E29">
@@ -1029,7 +1045,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E30">
@@ -1043,7 +1059,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E31">
@@ -1057,7 +1073,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E32">
@@ -1071,7 +1087,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E33">
@@ -1085,7 +1101,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E34">
@@ -1099,7 +1115,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E35">
@@ -1113,7 +1129,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E36">

--- a/Output/AutoCorr.xlsx
+++ b/Output/AutoCorr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="39">
   <si>
     <t>Row</t>
   </si>
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -178,11 +178,47 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -204,6 +240,42 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,16 +327,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -365,7 +437,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
       <c r="E2">
@@ -475,7 +547,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="55" t="s">
         <v>5</v>
       </c>
       <c r="E3">
@@ -585,7 +657,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="55" t="s">
         <v>6</v>
       </c>
       <c r="E4">
@@ -695,7 +767,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E5">
@@ -709,7 +781,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E6">
@@ -723,7 +795,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E7">
@@ -737,7 +809,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E8">
@@ -751,7 +823,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="E9">
@@ -765,7 +837,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="E10">
@@ -779,7 +851,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E11">
@@ -793,7 +865,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="55" t="s">
         <v>14</v>
       </c>
       <c r="E12">
@@ -807,7 +879,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E13">
@@ -821,7 +893,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E14">
@@ -835,7 +907,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E15">
@@ -849,7 +921,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="55" t="s">
         <v>18</v>
       </c>
       <c r="E16">
@@ -863,7 +935,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E17">
@@ -877,7 +949,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E18">
@@ -891,7 +963,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E19">
@@ -905,7 +977,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="55" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -919,7 +991,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="55" t="s">
         <v>23</v>
       </c>
       <c r="E21">
@@ -933,7 +1005,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="55" t="s">
         <v>24</v>
       </c>
       <c r="E22">
@@ -947,7 +1019,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="55" t="s">
         <v>25</v>
       </c>
       <c r="E23">
@@ -961,7 +1033,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E24">
@@ -975,7 +1047,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E25">
@@ -989,7 +1061,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="55" t="s">
         <v>28</v>
       </c>
       <c r="E26">
@@ -1003,7 +1075,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E27">
@@ -1017,7 +1089,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E28">
@@ -1031,7 +1103,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="55" t="s">
         <v>31</v>
       </c>
       <c r="E29">
@@ -1045,7 +1117,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="55" t="s">
         <v>32</v>
       </c>
       <c r="E30">
@@ -1059,7 +1131,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="55" t="s">
         <v>33</v>
       </c>
       <c r="E31">
@@ -1073,7 +1145,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E32">
@@ -1087,7 +1159,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="55" t="s">
         <v>35</v>
       </c>
       <c r="E33">
@@ -1101,7 +1173,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="55" t="s">
         <v>36</v>
       </c>
       <c r="E34">
@@ -1115,7 +1187,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="55" t="s">
         <v>37</v>
       </c>
       <c r="E35">
@@ -1129,7 +1201,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E36">
